--- a/REGULAR/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/REOSA, CECILIA ANAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85049B05-E544-46B7-8D4D-6A10A39F8683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B2A568-A307-4B5B-81AA-127CE0FC63F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,6 +293,9 @@
   </si>
   <si>
     <t>12/22-28/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2394,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2746,12 +2741,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2914,7 +2909,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.62</v>
+        <v>60.12</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2924,7 +2919,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>80.5</v>
+        <v>82</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4654,7 +4649,9 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="48" t="s">
+        <v>86</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4670,39 +4667,59 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39"/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>44936</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="A92" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>44958</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>44986</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4718,7 +4735,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45017</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4734,7 +4753,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45047</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4750,7 +4771,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45078</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4766,7 +4789,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45108</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4782,7 +4807,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45139</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4798,7 +4825,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45170</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4814,7 +4843,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45200</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4830,7 +4861,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45231</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4846,7 +4879,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45261</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4862,7 +4897,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45292</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4878,7 +4915,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45323</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4894,7 +4933,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45352</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4910,7 +4951,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45383</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4926,7 +4969,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45413</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4942,7 +4987,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45444</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4958,7 +5005,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45474</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4974,7 +5023,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45505</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4990,7 +5041,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45536</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5006,7 +5059,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45566</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5022,7 +5077,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45597</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5038,7 +5095,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45627</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5054,7 +5113,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45658</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5070,7 +5131,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45689</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5086,7 +5149,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45717</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5102,7 +5167,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45748</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5118,7 +5185,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45778</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5134,7 +5203,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45809</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5150,7 +5221,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45839</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5166,7 +5239,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45870</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5182,7 +5257,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45901</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5198,7 +5275,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>45931</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5214,7 +5293,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>45962</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5230,7 +5311,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45992</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5246,7 +5329,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>46023</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5262,7 +5347,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>46054</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5278,7 +5365,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>46082</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5294,7 +5383,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>46113</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5310,7 +5401,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>46143</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5326,7 +5419,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>46174</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5342,7 +5437,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>46204</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5358,7 +5455,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>46235</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5374,7 +5473,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
+      <c r="A135" s="40">
+        <v>46266</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5454,20 +5555,36 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="41"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="43"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="43"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="41"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="43"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/REOSA, CECILIA ANAY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B2A568-A307-4B5B-81AA-127CE0FC63F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>3/17,27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -942,7 +944,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -990,7 +991,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1034,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1098,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,7 +1158,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1224,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1287,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1385,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1444,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1509,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1552,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1627,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1813,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1879,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1937,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2003,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2059,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2134,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2177,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2243,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2299,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,25 +2395,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2719,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2729,7 +2730,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2737,34 +2738,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A83" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2785,7 +2786,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2805,7 +2806,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2828,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2835,7 +2836,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2848,7 +2849,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2865,7 +2866,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2909,7 +2910,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.12</v>
+        <v>61.37</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2919,12 +2920,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>82</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2946,7 +2947,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>48</v>
@@ -2992,7 +2993,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -3008,7 +3009,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -3028,7 +3029,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -3048,7 +3049,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3094,7 +3095,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>53</v>
@@ -3116,7 +3117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -3164,7 +3165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -3184,7 +3185,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -3204,7 +3205,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -3250,7 +3251,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -3270,7 +3271,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>62</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -3360,7 +3361,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -3380,7 +3381,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43525</v>
       </c>
@@ -3400,7 +3401,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43556</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -3448,7 +3449,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3468,7 +3469,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3516,7 +3517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>55</v>
@@ -3538,7 +3539,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43647</v>
       </c>
@@ -3558,7 +3559,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43678</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>47</v>
@@ -3604,7 +3605,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -3624,7 +3625,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -3644,7 +3645,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>68</v>
@@ -3692,7 +3693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43800</v>
       </c>
@@ -3712,7 +3713,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>70</v>
       </c>
@@ -3730,7 +3731,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43831</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43862</v>
       </c>
@@ -3774,7 +3775,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43891</v>
       </c>
@@ -3794,7 +3795,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43922</v>
       </c>
@@ -3814,7 +3815,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43952</v>
       </c>
@@ -3834,7 +3835,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43983</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44013</v>
       </c>
@@ -3880,7 +3881,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44044</v>
       </c>
@@ -3900,7 +3901,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44075</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44105</v>
       </c>
@@ -3940,7 +3941,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44136</v>
       </c>
@@ -3960,7 +3961,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44166</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -4006,7 +4007,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>75</v>
       </c>
@@ -4024,7 +4025,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44197</v>
       </c>
@@ -4044,7 +4045,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44228</v>
       </c>
@@ -4064,7 +4065,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44256</v>
       </c>
@@ -4084,7 +4085,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44287</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44317</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44348</v>
       </c>
@@ -4144,7 +4145,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44378</v>
       </c>
@@ -4164,7 +4165,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44409</v>
       </c>
@@ -4184,7 +4185,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44440</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44470</v>
       </c>
@@ -4224,7 +4225,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44501</v>
       </c>
@@ -4244,7 +4245,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>78</v>
       </c>
@@ -4288,7 +4289,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -4308,7 +4309,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -4328,7 +4329,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44621</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44652</v>
       </c>
@@ -4378,7 +4379,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>52</v>
@@ -4398,7 +4399,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44682</v>
       </c>
@@ -4418,7 +4419,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44713</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44743</v>
       </c>
@@ -4464,7 +4465,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44774</v>
       </c>
@@ -4484,7 +4485,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44805</v>
       </c>
@@ -4504,7 +4505,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44835</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44866</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>68</v>
@@ -4578,7 +4579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4600,7 +4601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>50</v>
@@ -4622,7 +4623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44896</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>86</v>
       </c>
@@ -4666,7 +4667,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44927</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44958</v>
       </c>
@@ -4716,25 +4717,33 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44986</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="B93" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H93" s="39">
+        <v>2</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45017</v>
       </c>
@@ -4752,7 +4761,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45047</v>
       </c>
@@ -4770,7 +4779,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45078</v>
       </c>
@@ -4788,7 +4797,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45108</v>
       </c>
@@ -4806,7 +4815,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45139</v>
       </c>
@@ -4824,7 +4833,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45170</v>
       </c>
@@ -4842,7 +4851,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45200</v>
       </c>
@@ -4860,7 +4869,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45231</v>
       </c>
@@ -4878,7 +4887,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45261</v>
       </c>
@@ -4896,7 +4905,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45292</v>
       </c>
@@ -4914,7 +4923,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45323</v>
       </c>
@@ -4932,7 +4941,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45352</v>
       </c>
@@ -4950,7 +4959,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45383</v>
       </c>
@@ -4968,7 +4977,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45413</v>
       </c>
@@ -4986,7 +4995,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45444</v>
       </c>
@@ -5004,7 +5013,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45474</v>
       </c>
@@ -5022,7 +5031,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45505</v>
       </c>
@@ -5040,7 +5049,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45536</v>
       </c>
@@ -5058,7 +5067,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45566</v>
       </c>
@@ -5076,7 +5085,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45597</v>
       </c>
@@ -5094,7 +5103,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45627</v>
       </c>
@@ -5112,7 +5121,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45658</v>
       </c>
@@ -5130,7 +5139,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45689</v>
       </c>
@@ -5148,7 +5157,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45717</v>
       </c>
@@ -5166,7 +5175,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45748</v>
       </c>
@@ -5184,7 +5193,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45778</v>
       </c>
@@ -5202,7 +5211,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45809</v>
       </c>
@@ -5220,7 +5229,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45839</v>
       </c>
@@ -5238,7 +5247,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45870</v>
       </c>
@@ -5256,7 +5265,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45901</v>
       </c>
@@ -5274,7 +5283,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45931</v>
       </c>
@@ -5292,7 +5301,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45962</v>
       </c>
@@ -5310,7 +5319,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45992</v>
       </c>
@@ -5328,7 +5337,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46023</v>
       </c>
@@ -5346,7 +5355,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46054</v>
       </c>
@@ -5364,7 +5373,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46082</v>
       </c>
@@ -5382,7 +5391,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46113</v>
       </c>
@@ -5400,7 +5409,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46143</v>
       </c>
@@ -5418,7 +5427,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46174</v>
       </c>
@@ -5436,7 +5445,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46204</v>
       </c>
@@ -5454,7 +5463,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>46235</v>
       </c>
@@ -5472,7 +5481,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>46266</v>
       </c>
@@ -5490,7 +5499,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5506,7 +5515,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5522,7 +5531,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5538,7 +5547,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5554,7 +5563,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5570,7 +5579,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -5601,10 +5610,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5627,28 +5636,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5661,7 +5670,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5690,7 +5699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>12.62</v>
       </c>
@@ -5714,17 +5723,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5745,7 +5754,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5772,7 +5781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5798,7 +5807,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5824,7 +5833,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5850,7 +5859,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5876,7 +5885,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5902,7 +5911,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5928,7 +5937,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5954,7 +5963,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5994,7 +6003,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6014,7 +6023,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6056,7 +6065,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6077,7 +6086,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6119,7 +6128,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6140,7 +6149,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6182,7 +6191,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6203,7 +6212,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6224,7 +6233,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6245,7 +6254,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6266,7 +6275,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6287,7 +6296,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6308,7 +6317,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6329,7 +6338,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6350,7 +6359,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6371,7 +6380,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6392,7 +6401,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6413,7 +6422,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6434,7 +6443,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6443,7 +6452,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6452,7 +6461,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6461,7 +6470,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6470,7 +6479,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6479,7 +6488,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6488,7 +6497,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6497,7 +6506,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6506,7 +6515,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6515,7 +6524,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6524,7 +6533,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6533,7 +6542,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6542,7 +6551,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6551,7 +6560,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6560,7 +6569,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6569,7 +6578,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6578,7 +6587,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6587,7 +6596,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6596,7 +6605,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6605,7 +6614,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6614,7 +6623,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6623,7 +6632,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6632,7 +6641,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6641,7 +6650,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6650,7 +6659,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6659,7 +6668,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6668,7 +6677,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6677,7 +6686,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6686,7 +6695,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6695,7 +6704,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/REOSA, CECILIA ANAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>3/17,27/2023</t>
+  </si>
+  <si>
+    <t>5/2,3/2023</t>
+  </si>
+  <si>
+    <t>4/25,27,28/2023</t>
+  </si>
+  <si>
+    <t>5/5,8,9/2023</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2404,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2742,12 +2751,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2919,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.37</v>
+        <v>60.62</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2920,7 +2929,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.25</v>
+        <v>76.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4748,13 +4757,15 @@
         <v>45017</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -4765,9 +4776,13 @@
       <c r="A95" s="40">
         <v>45047</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
+      <c r="D95" s="39">
+        <v>2</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
@@ -4777,13 +4792,15 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
@@ -4792,16 +4809,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>3</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B97" s="20"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
@@ -4810,14 +4831,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>3</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4835,7 +4860,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4853,7 +4878,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4871,7 +4896,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4889,7 +4914,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4907,7 +4932,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4925,7 +4950,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4943,7 +4968,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4961,7 +4986,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4979,7 +5004,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4997,7 +5022,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5015,7 +5040,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5033,7 +5058,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5051,7 +5076,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5069,7 +5094,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5087,7 +5112,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5105,7 +5130,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5123,7 +5148,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5141,7 +5166,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5159,7 +5184,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5177,7 +5202,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5195,7 +5220,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5213,7 +5238,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5231,7 +5256,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5249,7 +5274,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5267,7 +5292,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5285,7 +5310,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5303,7 +5328,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5321,7 +5346,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5339,7 +5364,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5357,7 +5382,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5375,7 +5400,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5393,7 +5418,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5411,7 +5436,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5429,7 +5454,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5447,7 +5472,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5465,7 +5490,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5483,7 +5508,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5500,7 +5525,9 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <v>46235</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5516,7 +5543,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <v>46266</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5580,20 +5609,52 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="41"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="43"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/REOSA, CECILIA ANAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2404,7 +2404,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2751,12 +2751,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +2929,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76.5</v>
+        <v>72.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4841,10 +4841,10 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B98" s="20"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -4853,16 +4853,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>3</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B99" s="20"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
@@ -4871,14 +4875,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="49">
+        <v>45065</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4896,7 +4904,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4914,7 +4922,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4932,7 +4940,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4950,7 +4958,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4968,7 +4976,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4986,7 +4994,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5004,7 +5012,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5022,7 +5030,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5040,7 +5048,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5058,7 +5066,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5076,7 +5084,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5094,7 +5102,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5112,7 +5120,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5130,7 +5138,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5148,7 +5156,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5166,7 +5174,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5184,7 +5192,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5202,7 +5210,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5220,7 +5228,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5238,7 +5246,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5256,7 +5264,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5274,7 +5282,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5292,7 +5300,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5310,7 +5318,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5328,7 +5336,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5346,7 +5354,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5364,7 +5372,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5382,7 +5390,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5400,7 +5408,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5418,7 +5426,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5436,7 +5444,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5454,7 +5462,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5472,7 +5480,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5490,7 +5498,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5508,7 +5516,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5526,7 +5534,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5544,7 +5552,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5561,7 +5569,9 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <v>46235</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -5577,7 +5587,9 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <v>46266</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -5641,20 +5653,52 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="41"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/REOSA, CECILIA ANAY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAF77D-8DD6-4FF8-B62E-4A3F240C2989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,12 +308,15 @@
   </si>
   <si>
     <t>5/5,8,9/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRAD 6/27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1000,7 +1004,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,7 +1047,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1111,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1171,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1237,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1300,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1398,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1457,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1522,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1565,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1640,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1826,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1892,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1950,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2016,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2072,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2147,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2190,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2256,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2312,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2391,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2404,25 +2408,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2729,7 +2733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2739,7 +2743,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2747,34 +2751,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A85" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2799,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2815,7 +2819,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2837,7 +2841,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2845,7 +2849,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2858,7 +2862,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2875,7 +2879,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2934,7 +2938,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2956,7 +2960,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>48</v>
@@ -3002,7 +3006,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -3018,7 +3022,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -3038,7 +3042,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -3058,7 +3062,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3104,7 +3108,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>53</v>
@@ -3126,7 +3130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -3174,7 +3178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -3194,7 +3198,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -3214,7 +3218,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -3260,7 +3264,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -3280,7 +3284,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>62</v>
       </c>
@@ -3350,7 +3354,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -3370,7 +3374,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -3390,7 +3394,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43525</v>
       </c>
@@ -3410,7 +3414,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43556</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -3458,7 +3462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3526,7 +3530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>55</v>
@@ -3548,7 +3552,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43647</v>
       </c>
@@ -3568,7 +3572,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43678</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>47</v>
@@ -3614,7 +3618,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -3654,7 +3658,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>68</v>
@@ -3702,7 +3706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43800</v>
       </c>
@@ -3722,7 +3726,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>70</v>
       </c>
@@ -3740,7 +3744,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43831</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43862</v>
       </c>
@@ -3784,7 +3788,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43891</v>
       </c>
@@ -3804,7 +3808,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43922</v>
       </c>
@@ -3824,7 +3828,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43952</v>
       </c>
@@ -3844,7 +3848,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43983</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44013</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44044</v>
       </c>
@@ -3910,7 +3914,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44075</v>
       </c>
@@ -3930,7 +3934,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44105</v>
       </c>
@@ -3950,7 +3954,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44136</v>
       </c>
@@ -3970,7 +3974,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44166</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -4016,7 +4020,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>75</v>
       </c>
@@ -4034,7 +4038,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44197</v>
       </c>
@@ -4054,7 +4058,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44228</v>
       </c>
@@ -4074,7 +4078,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44256</v>
       </c>
@@ -4094,7 +4098,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44287</v>
       </c>
@@ -4114,7 +4118,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44317</v>
       </c>
@@ -4134,7 +4138,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44348</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44378</v>
       </c>
@@ -4174,7 +4178,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44409</v>
       </c>
@@ -4194,7 +4198,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44440</v>
       </c>
@@ -4214,7 +4218,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44470</v>
       </c>
@@ -4234,7 +4238,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44501</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -4280,7 +4284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>78</v>
       </c>
@@ -4298,7 +4302,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -4318,7 +4322,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -4338,7 +4342,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44621</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44652</v>
       </c>
@@ -4388,7 +4392,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>52</v>
@@ -4408,7 +4412,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44682</v>
       </c>
@@ -4428,7 +4432,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44713</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44743</v>
       </c>
@@ -4474,7 +4478,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44774</v>
       </c>
@@ -4494,7 +4498,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44805</v>
       </c>
@@ -4514,7 +4518,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44835</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44866</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>68</v>
@@ -4588,7 +4592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4610,7 +4614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>50</v>
@@ -4632,7 +4636,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44896</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>86</v>
       </c>
@@ -4676,7 +4680,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44927</v>
       </c>
@@ -4702,7 +4706,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44958</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44986</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45017</v>
       </c>
@@ -4772,7 +4776,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45047</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>58</v>
@@ -4818,7 +4822,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>58</v>
@@ -4840,7 +4844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>58</v>
@@ -4862,7 +4866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>55</v>
@@ -4884,11 +4888,11 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B100" s="20"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40"/>
+      <c r="B100" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
@@ -4900,11 +4904,13 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4920,9 +4926,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4938,9 +4944,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4956,9 +4962,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4974,9 +4980,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4992,9 +4998,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5010,9 +5016,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5028,9 +5034,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5046,9 +5052,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5064,9 +5070,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5082,9 +5088,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5100,9 +5106,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5118,9 +5124,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5136,9 +5142,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5154,9 +5160,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5172,9 +5178,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5190,9 +5196,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5208,9 +5214,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5226,9 +5232,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5244,9 +5250,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5262,9 +5268,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5280,9 +5286,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5298,9 +5304,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5316,9 +5322,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5334,9 +5340,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5352,9 +5358,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5370,9 +5376,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5388,9 +5394,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5406,9 +5412,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5424,9 +5430,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5442,9 +5448,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5460,9 +5466,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5478,9 +5484,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5496,9 +5502,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5514,9 +5520,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5532,9 +5538,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5550,9 +5556,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5568,9 +5574,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5586,9 +5592,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5604,8 +5610,10 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <v>46266</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -5620,7 +5628,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5636,7 +5644,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5652,7 +5660,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5668,7 +5676,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5684,21 +5692,37 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="41"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="43"/>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="43"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="41"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="43"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5715,10 +5739,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5741,28 +5765,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5775,7 +5799,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5804,7 +5828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>12.62</v>
       </c>
@@ -5828,17 +5852,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5859,7 +5883,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5886,7 +5910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5912,7 +5936,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5938,7 +5962,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5964,7 +5988,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5990,7 +6014,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6016,7 +6040,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6042,7 +6066,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6068,7 +6092,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6088,7 +6112,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6108,7 +6132,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6128,7 +6152,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6149,7 +6173,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6170,7 +6194,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6191,7 +6215,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6212,7 +6236,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6233,7 +6257,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6254,7 +6278,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6275,7 +6299,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6296,7 +6320,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6317,7 +6341,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6338,7 +6362,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6359,7 +6383,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6380,7 +6404,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6401,7 +6425,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6422,7 +6446,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6443,7 +6467,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6464,7 +6488,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6485,7 +6509,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6506,7 +6530,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6527,7 +6551,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6548,7 +6572,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6557,7 +6581,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6566,7 +6590,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6575,7 +6599,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6584,7 +6608,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6593,7 +6617,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6602,7 +6626,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6611,7 +6635,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6620,7 +6644,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6629,7 +6653,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6638,7 +6662,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6647,7 +6671,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6656,7 +6680,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6665,7 +6689,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6674,7 +6698,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6683,7 +6707,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6692,7 +6716,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6701,7 +6725,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6710,7 +6734,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6719,7 +6743,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6728,7 +6752,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6737,7 +6761,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6746,7 +6770,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6755,7 +6779,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6764,7 +6788,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6773,7 +6797,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6782,7 +6806,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6791,7 +6815,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6800,7 +6824,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6809,7 +6833,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/REOSA, CECILIA ANAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAF77D-8DD6-4FF8-B62E-4A3F240C2989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3844435-7FF2-4B48-96C6-DA2600C154C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2923,7 +2923,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.62</v>
+        <v>63.12</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2933,7 +2933,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>72.5</v>
+        <v>75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4783,15 +4783,17 @@
       <c r="B95" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39">
         <v>2</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
@@ -4913,13 +4915,15 @@
         <v>45078</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>

--- a/REGULAR/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/REOSA, CECILIA ANAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3844435-7FF2-4B48-96C6-DA2600C154C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13CBFFA-67C6-4442-BDB6-EE90968CA103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2760,7 +2760,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2933,7 +2933,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4914,7 +4914,9 @@
       <c r="A101" s="40">
         <v>45078</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C101" s="13">
         <v>1.25</v>
       </c>
@@ -4925,10 +4927,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="39">
+        <v>1</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="49">
+        <v>45103</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
